--- a/datasets/acme_spd/questions/ACME_SPD_Questions_Mini.xlsx
+++ b/datasets/acme_spd/questions/ACME_SPD_Questions_Mini.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RAG_Tester\acme_spd\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shthanka.ORADEV\Oracle Content\Gen AI\rag_tester_llidx\datasets\acme_spd\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3952D6-E023-4FC7-8729-566385B5C73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B59B92-7923-4A89-85A6-88FDA6367673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="684" yWindow="804" windowWidth="21948" windowHeight="11232" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="1020" windowWidth="28005" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="292">
   <si>
     <t>assessment</t>
   </si>
@@ -926,9 +926,6 @@
   </si>
   <si>
     <t>The document does not provide specific details regarding coverage for laser eye surgery by the Vision Service Plan</t>
-  </si>
-  <si>
-    <t>average_score</t>
   </si>
   <si>
     <t>my wife also works at ACME. Can we add each other as beneficiaries to our Life insurance plans</t>
@@ -1072,10 +1069,10 @@
     <t>Your accident insurance deduction under the ACME United plan is done using pre-tax dollars. This pre-tax option allows you to pay for your Accidental Death &amp; Dismemberment (AD&amp;D) coverage with pre-tax dollars, similar to certain other benefits offered within the plan</t>
   </si>
   <si>
+    <t>query_num</t>
+  </si>
+  <si>
     <t>query</t>
-  </si>
-  <si>
-    <t>query_num</t>
   </si>
 </sst>
 </file>
@@ -1579,16 +1576,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1945,24 +1939,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="97.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>291</v>
@@ -1970,167 +1962,406 @@
       <c r="C1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="288" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="390" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
+    </row>
+    <row r="23" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="390" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B43">
-    <sortCondition ref="A2:A43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B37">
+    <sortCondition ref="A2:A37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2144,21 +2375,21 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>129</v>
       </c>
@@ -2166,7 +2397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>130</v>
       </c>
@@ -2174,7 +2405,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>131</v>
       </c>
@@ -2182,7 +2413,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -2190,7 +2421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
@@ -2198,7 +2429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
@@ -2206,7 +2437,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>135</v>
       </c>
@@ -2214,7 +2445,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>136</v>
       </c>
@@ -2222,7 +2453,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>137</v>
       </c>
@@ -2230,7 +2461,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>138</v>
       </c>
@@ -2238,7 +2469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>139</v>
       </c>
@@ -2246,7 +2477,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -2254,7 +2485,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>141</v>
       </c>
@@ -2262,7 +2493,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>142</v>
       </c>
@@ -2270,7 +2501,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>143</v>
       </c>
@@ -2278,7 +2509,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>144</v>
       </c>
@@ -2286,7 +2517,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>145</v>
       </c>
@@ -2294,7 +2525,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>146</v>
       </c>
@@ -2302,7 +2533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>147</v>
       </c>
@@ -2310,7 +2541,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>148</v>
       </c>
@@ -2318,7 +2549,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>149</v>
       </c>
@@ -2326,7 +2557,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>150</v>
       </c>
@@ -2334,7 +2565,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>151</v>
       </c>
@@ -2342,7 +2573,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>152</v>
       </c>
@@ -2350,7 +2581,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>153</v>
       </c>
@@ -2358,7 +2589,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>154</v>
       </c>
@@ -2366,7 +2597,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>155</v>
       </c>
@@ -2374,7 +2605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>156</v>
       </c>
@@ -2382,7 +2613,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>157</v>
       </c>
@@ -2390,7 +2621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>158</v>
       </c>
@@ -2398,7 +2629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>159</v>
       </c>
@@ -2406,7 +2637,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>160</v>
       </c>
@@ -2414,7 +2645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>161</v>
       </c>
@@ -2422,7 +2653,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>162</v>
       </c>
@@ -2430,7 +2661,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>163</v>
       </c>
@@ -2438,7 +2669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>164</v>
       </c>
@@ -2446,7 +2677,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>165</v>
       </c>
@@ -2454,7 +2685,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>166</v>
       </c>
@@ -2462,7 +2693,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>167</v>
       </c>
@@ -2470,7 +2701,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>168</v>
       </c>
@@ -2478,7 +2709,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>169</v>
       </c>
@@ -2486,7 +2717,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>170</v>
       </c>
@@ -2494,7 +2725,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>171</v>
       </c>
@@ -2502,7 +2733,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>172</v>
       </c>
@@ -2510,7 +2741,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>173</v>
       </c>
@@ -2518,7 +2749,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>174</v>
       </c>
@@ -2526,7 +2757,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
@@ -2534,7 +2765,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>176</v>
       </c>
@@ -2542,7 +2773,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>177</v>
       </c>
@@ -2550,7 +2781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>178</v>
       </c>
@@ -2558,7 +2789,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>179</v>
       </c>
@@ -2566,7 +2797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>180</v>
       </c>
@@ -2574,7 +2805,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>181</v>
       </c>
@@ -2582,7 +2813,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>182</v>
       </c>
@@ -2590,7 +2821,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>183</v>
       </c>
@@ -2598,7 +2829,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>184</v>
       </c>
@@ -2606,7 +2837,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>185</v>
       </c>
@@ -2614,7 +2845,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>186</v>
       </c>
@@ -2622,7 +2853,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>187</v>
       </c>
@@ -2630,7 +2861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>188</v>
       </c>
@@ -2638,7 +2869,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>189</v>
       </c>
@@ -2646,7 +2877,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -2654,7 +2885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>191</v>
       </c>
@@ -2662,7 +2893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>192</v>
       </c>
@@ -2670,7 +2901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>193</v>
       </c>
@@ -2678,7 +2909,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>194</v>
       </c>
@@ -2686,7 +2917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>195</v>
       </c>
@@ -2694,7 +2925,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>196</v>
       </c>
@@ -2702,7 +2933,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>197</v>
       </c>
@@ -2710,7 +2941,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>198</v>
       </c>
@@ -2718,7 +2949,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>199</v>
       </c>
@@ -2726,7 +2957,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>200</v>
       </c>
@@ -2734,7 +2965,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>201</v>
       </c>
@@ -2742,7 +2973,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>202</v>
       </c>
@@ -2750,7 +2981,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>203</v>
       </c>
@@ -2758,7 +2989,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>204</v>
       </c>
@@ -2766,7 +2997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>205</v>
       </c>
@@ -2774,7 +3005,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>206</v>
       </c>
@@ -2782,7 +3013,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>207</v>
       </c>
@@ -2790,7 +3021,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>208</v>
       </c>
@@ -2798,7 +3029,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>209</v>
       </c>
@@ -2806,7 +3037,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>210</v>
       </c>
@@ -2826,24 +3057,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>291</v>
@@ -2858,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>129</v>
       </c>
@@ -2875,7 +3106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>130</v>
       </c>
@@ -2889,10 +3120,10 @@
         <v>117</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>131</v>
       </c>
@@ -2906,10 +3137,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -2926,7 +3157,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
@@ -2943,7 +3174,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
@@ -2960,7 +3191,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>135</v>
       </c>
@@ -2977,7 +3208,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>136</v>
       </c>
@@ -2994,7 +3225,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>137</v>
       </c>
@@ -3008,10 +3239,10 @@
         <v>117</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>138</v>
       </c>
@@ -3028,12 +3259,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="360" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>218</v>
@@ -3042,10 +3273,10 @@
         <v>117</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -3062,7 +3293,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>141</v>
       </c>
@@ -3079,7 +3310,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>142</v>
       </c>
@@ -3096,7 +3327,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>143</v>
       </c>
@@ -3113,7 +3344,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>144</v>
       </c>
@@ -3130,7 +3361,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>145</v>
       </c>
@@ -3144,10 +3375,10 @@
         <v>117</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>146</v>
       </c>
@@ -3164,7 +3395,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>147</v>
       </c>
@@ -3181,7 +3412,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>148</v>
       </c>
@@ -3198,7 +3429,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>149</v>
       </c>
@@ -3215,7 +3446,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>150</v>
       </c>
@@ -3232,7 +3463,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>151</v>
       </c>
@@ -3249,7 +3480,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>152</v>
       </c>
@@ -3266,7 +3497,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="375" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>153</v>
       </c>
@@ -3280,10 +3511,10 @@
         <v>117</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>154</v>
       </c>
@@ -3297,10 +3528,10 @@
         <v>107</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>155</v>
       </c>
@@ -3314,10 +3545,10 @@
         <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="374.4" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>156</v>
       </c>
@@ -3334,7 +3565,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>157</v>
       </c>
@@ -3348,10 +3579,10 @@
         <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>158</v>
       </c>
@@ -3365,10 +3596,10 @@
         <v>6</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>159</v>
       </c>
@@ -3382,10 +3613,10 @@
         <v>107</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="360" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>160</v>
       </c>
@@ -3399,10 +3630,10 @@
         <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>161</v>
       </c>
@@ -3419,7 +3650,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>162</v>
       </c>
@@ -3433,10 +3664,10 @@
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>163</v>
       </c>
@@ -3450,10 +3681,10 @@
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>164</v>
       </c>
@@ -3470,7 +3701,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>165</v>
       </c>
@@ -3487,7 +3718,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>166</v>
       </c>
@@ -3504,7 +3735,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>167</v>
       </c>
@@ -3521,7 +3752,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>168</v>
       </c>
@@ -3535,10 +3766,10 @@
         <v>107</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>169</v>
       </c>
@@ -3555,7 +3786,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="360" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>170</v>
       </c>
@@ -3572,7 +3803,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>171</v>
       </c>
@@ -3589,7 +3820,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>172</v>
       </c>
@@ -3603,10 +3834,10 @@
         <v>107</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>173</v>
       </c>
@@ -3623,7 +3854,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>174</v>
       </c>
@@ -3640,7 +3871,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
@@ -3657,7 +3888,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>176</v>
       </c>
@@ -3674,7 +3905,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>177</v>
       </c>
@@ -3688,10 +3919,10 @@
         <v>6</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>178</v>
       </c>
@@ -3708,7 +3939,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>179</v>
       </c>
@@ -3722,10 +3953,10 @@
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>180</v>
       </c>
@@ -3739,10 +3970,10 @@
         <v>117</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>181</v>
       </c>
@@ -3759,7 +3990,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>182</v>
       </c>
@@ -3776,7 +4007,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>183</v>
       </c>
@@ -3790,10 +4021,10 @@
         <v>3</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>184</v>
       </c>
@@ -3810,7 +4041,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>185</v>
       </c>
@@ -3827,7 +4058,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>186</v>
       </c>
@@ -3844,7 +4075,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>187</v>
       </c>
@@ -3858,10 +4089,10 @@
         <v>6</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>188</v>
       </c>
@@ -3875,10 +4106,10 @@
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>189</v>
       </c>
@@ -3892,10 +4123,10 @@
         <v>107</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -3909,10 +4140,10 @@
         <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>191</v>
       </c>
@@ -3926,10 +4157,10 @@
         <v>6</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>192</v>
       </c>
@@ -3943,10 +4174,10 @@
         <v>6</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>193</v>
       </c>
@@ -3963,7 +4194,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>194</v>
       </c>
@@ -3977,10 +4208,10 @@
         <v>6</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>195</v>
       </c>
@@ -3994,10 +4225,10 @@
         <v>107</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>196</v>
       </c>
@@ -4014,7 +4245,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>197</v>
       </c>
@@ -4031,7 +4262,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>198</v>
       </c>
@@ -4048,7 +4279,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>199</v>
       </c>
@@ -4062,10 +4293,10 @@
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>200</v>
       </c>
@@ -4082,7 +4313,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>201</v>
       </c>
@@ -4099,7 +4330,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>202</v>
       </c>
@@ -4116,7 +4347,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>203</v>
       </c>
@@ -4133,7 +4364,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>204</v>
       </c>
@@ -4147,10 +4378,10 @@
         <v>6</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>205</v>
       </c>
@@ -4167,7 +4398,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>206</v>
       </c>
@@ -4181,10 +4412,10 @@
         <v>32</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>207</v>
       </c>
@@ -4201,7 +4432,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>208</v>
       </c>
@@ -4218,7 +4449,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>209</v>
       </c>
@@ -4235,7 +4466,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>210</v>
       </c>
